--- a/MetadatosTrivia.xlsx
+++ b/MetadatosTrivia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\nbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C929D70A-662B-4C91-B6AE-196A2A8B9464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7134AC-0BE7-4ECF-BE55-AFC1DF3823C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{14AC32E5-6124-4D06-8AB0-E7FE0C75EAA8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="84">
   <si>
     <t>id</t>
   </si>
@@ -238,9 +238,6 @@
     <t>PARTICIPACION</t>
   </si>
   <si>
-    <t>respuestascorrectas</t>
-  </si>
-  <si>
     <t>Cantidad de respuestas correctas</t>
   </si>
   <si>
@@ -272,6 +269,15 @@
   </si>
   <si>
     <t>tiempo</t>
+  </si>
+  <si>
+    <t>Cantidad de respuestas incorrectas</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Tiempo en segundos en que se utilizo para resolver las preguntas</t>
   </si>
 </sst>
 </file>
@@ -555,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -578,6 +584,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15465CB2-7D59-47E4-9511-81FFAAE21C3D}">
-  <dimension ref="A2:K121"/>
+  <dimension ref="A2:K123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:K102"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2028,7 +2036,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>1</v>
@@ -2835,10 +2843,10 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -2849,16 +2857,16 @@
       <c r="I96" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J96" s="15">
+      <c r="J96" s="21">
         <v>0</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B97" s="8" t="s">
         <v>19</v>
@@ -2876,187 +2884,187 @@
         <v>0</v>
       </c>
       <c r="K97" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J98" s="15">
+        <v>0</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J99" s="15">
+        <v>0</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J102" s="17">
+        <v>1</v>
+      </c>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="104" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="19" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J100" s="17">
-        <v>1</v>
-      </c>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="102" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="19"/>
-      <c r="G102" s="19"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+    </row>
+    <row r="105" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B105" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C103" s="11" t="s">
+      <c r="C105" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="11" t="s">
+      <c r="D105" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="11" t="s">
+      <c r="E105" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="11" t="s">
+      <c r="F105" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G105" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="11" t="s">
+      <c r="H105" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I103" s="11" t="s">
+      <c r="I105" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J103" s="14" t="s">
+      <c r="J105" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K103" s="12" t="s">
+      <c r="K105" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="15"/>
-      <c r="K104" s="9"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H105" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J105" s="15"/>
-      <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B106" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H106" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="D106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
       <c r="I106" s="8" t="s">
         <v>12</v>
       </c>
@@ -3065,7 +3073,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B107" s="8" t="s">
         <v>19</v>
@@ -3075,7 +3083,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H107" s="8" t="s">
         <v>0</v>
@@ -3088,205 +3096,205 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="G108" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="I108" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J108" s="15">
-        <v>0</v>
-      </c>
-      <c r="K108" s="9" t="s">
+      <c r="J108" s="15"/>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J109" s="15"/>
+      <c r="K109" s="9"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="B110" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110" s="15">
+        <v>0</v>
+      </c>
+      <c r="K110" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J109" s="16" t="s">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J110" s="16" t="s">
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J112" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B113" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J111" s="17">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J113" s="17">
         <v>1</v>
       </c>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="113" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
+      <c r="K113" s="6"/>
+    </row>
+    <row r="115" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+    </row>
+    <row r="116" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B116" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C116" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="11" t="s">
+      <c r="D116" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="11" t="s">
+      <c r="E116" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="F116" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G114" s="11" t="s">
+      <c r="G116" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H114" s="11" t="s">
+      <c r="H116" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="11" t="s">
+      <c r="I116" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J114" s="14" t="s">
+      <c r="J116" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K114" s="12" t="s">
+      <c r="K116" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J115" s="15"/>
-      <c r="K115" s="9"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J116" s="15"/>
-      <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="B117" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-      <c r="G117" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H117" s="8" t="s">
-        <v>0</v>
-      </c>
+      <c r="D117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
       <c r="I117" s="8" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3303,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>19</v>
@@ -3304,95 +3312,141 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+      <c r="G118" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>0</v>
+      </c>
       <c r="I118" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J118" s="15">
-        <v>0</v>
-      </c>
-      <c r="K118" s="9" t="s">
-        <v>79</v>
-      </c>
+      <c r="J118" s="15"/>
+      <c r="K118" s="9"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119" s="15"/>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120" s="15">
+        <v>0</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J119" s="16" t="s">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J121" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J120" s="16" t="s">
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J122" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B121" s="13" t="s">
+      <c r="B123" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
-      <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J121" s="17">
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J123" s="17">
         <v>1</v>
       </c>
-      <c r="K121" s="6"/>
+      <c r="K123" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A102:K102"/>
-    <mergeCell ref="A113:K113"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A115:K115"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A61:K61"/>
     <mergeCell ref="A72:K72"/>
     <mergeCell ref="A81:K81"/>
     <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A37:K37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3411,7 +3465,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1">
         <f>LEN(A1)</f>
